--- a/TaxesCollection_DB_Data_Dictionary.xlsx
+++ b/TaxesCollection_DB_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\TopTal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4427A0-A077-48A8-AAD2-25DB059AC084}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7191ED-BA1B-43A7-8CF0-FE55FB3C0743}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E61D19A7-3D35-49FE-A6AB-AB1174689459}"/>
   </bookViews>
